--- a/esg-all-v1.xlsx
+++ b/esg-all-v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Abhay/NMIMS/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146F8D48-F1F9-454E-A6E4-49E786F9557B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1CD64C0-D4AA-9A4A-8D49-C814D80952BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -162,9 +162,6 @@
     <t>M&amp;M</t>
   </si>
   <si>
-    <t>Maruti suzu</t>
-  </si>
-  <si>
     <t>STOCK</t>
   </si>
   <si>
@@ -193,6 +190,9 @@
   </si>
   <si>
     <t>GRASIM</t>
+  </si>
+  <si>
+    <t>MARUTI</t>
   </si>
 </sst>
 </file>
@@ -556,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -570,16 +570,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -644,7 +644,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>13</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14">
         <v>19</v>
@@ -943,8 +943,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>43</v>
+      <c r="A26" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B26">
         <v>26</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="29" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" s="2">
         <v>28.22</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37">
         <v>31.45</v>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46">
         <v>37</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50">
         <v>43</v>
